--- a/biology/Botanique/Cotoneaster_delphinensis/Cotoneaster_delphinensis.xlsx
+++ b/biology/Botanique/Cotoneaster_delphinensis/Cotoneaster_delphinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotonéaster du Dauphiné, Cotonnier du Dauphiné
 Cotoneaster delphinensis, en français Cotonéaster du Dauphiné ou Cotonnier du Dauphiné, est une espèce de plantes à fleurs de la famille des Rosacées et du genre Cotoneaster. C'est un arbrisseau ou un arbuste endémique du Sud-Est de la France.
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est un arbuste dressé, haut de 1 à 3 m, à feuilles ovales, arrondies et cunéiformes à la base, et dont la face inférieure est blanc-verdâtre[3].
-Appareil reproducteur
-Il possède une inflorescence qui comprend jusqu'à vingt fleurs, aux pétales blancs et dressés, et à floraison simultanée en juin. La corolle a un diamètre de 6 à 7 mm[4]. Rouges et sphériques, les fruits contiennent deux graines libres[3]. La floraison a lieu en juin[3],[4].
-Confusions possibles
-Ce cotonéaster se reconnaît à ses fleurs blanches à pétales dressés, groupées en corymbes. Les inflorescences possèdent de longs pédicelles, ce qui peut permettre la différenciation d’avec Cotoneaster nebrodensis, dont les fleurs possèdent des pétales étalés et des pédicelles plus courts[4].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste dressé, haut de 1 à 3 m, à feuilles ovales, arrondies et cunéiformes à la base, et dont la face inférieure est blanc-verdâtre.
 </t>
         </is>
       </c>
@@ -545,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Cotonéaster du Dauphiné pousse parmi les broussailles bien ensoleillées[4].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il possède une inflorescence qui comprend jusqu'à vingt fleurs, aux pétales blancs et dressés, et à floraison simultanée en juin. La corolle a un diamètre de 6 à 7 mm. Rouges et sphériques, les fruits contiennent deux graines libres. La floraison a lieu en juin,.
 </t>
         </is>
       </c>
@@ -576,12 +595,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cotonéaster se reconnaît à ses fleurs blanches à pétales dressés, groupées en corymbes. Les inflorescences possèdent de longs pédicelles, ce qui peut permettre la différenciation d’avec Cotoneaster nebrodensis, dont les fleurs possèdent des pétales étalés et des pédicelles plus courts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cotoneaster_delphinensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cotoneaster_delphinensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cotonéaster du Dauphiné pousse parmi les broussailles bien ensoleillées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cotoneaster_delphinensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cotoneaster_delphinensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cotonéaster du Dauphiné est endémique du Dauphiné, soit le Sud-Est de la France (Alpes provençales)[4],[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cotonéaster du Dauphiné est endémique du Dauphiné, soit le Sud-Est de la France (Alpes provençales),.
 </t>
         </is>
       </c>
